--- a/sample_data/28 JUNE 2023 CFS.xlsx
+++ b/sample_data/28 JUNE 2023 CFS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6790"/>
+    <workbookView windowWidth="18350" windowHeight="6830"/>
   </bookViews>
   <sheets>
     <sheet name="export - 2023-06-28T100116.389" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/sample_data/28 JUNE 2023 CFS.xlsx
+++ b/sample_data/28 JUNE 2023 CFS.xlsx
@@ -1089,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/sample_data/28 JUNE 2023 CFS.xlsx
+++ b/sample_data/28 JUNE 2023 CFS.xlsx
@@ -1087,9 +1087,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -1099,10 +1099,10 @@
     <col min="2" max="2" width="36.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="23.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="19.4545454545455" customWidth="1"/>
-    <col min="13" max="13" width="20.0909090909091" customWidth="1"/>
+    <col min="12" max="12" width="20.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,14 +1136,14 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1178,11 +1178,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1217,11 +1217,11 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1256,11 +1256,11 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1295,11 +1295,11 @@
       <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>30</v>
       </c>
     </row>

--- a/sample_data/28 JUNE 2023 CFS.xlsx
+++ b/sample_data/28 JUNE 2023 CFS.xlsx
@@ -1089,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
